--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="211"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="PATRIMONIO" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>ANO</t>
   </si>
@@ -79,16 +80,27 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>APLICAÇÃO</t>
+  </si>
+  <si>
+    <t>RENT. % a.m.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -106,6 +118,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,10 +142,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -142,11 +161,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="53">
     <dxf>
       <font>
         <b val="0"/>
@@ -181,23 +213,236 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -250,6 +495,23 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     </dxf>
     <dxf>
@@ -268,280 +530,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     </dxf>
     <dxf>
@@ -600,6 +588,511 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -615,273 +1108,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,38 +1120,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="26" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="40" totalsRowDxfId="19"/>
-    <tableColumn id="18" name="MESES" dataDxfId="27" totalsRowDxfId="18"/>
-    <tableColumn id="2" name="JAN" dataDxfId="39" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="FEV" dataDxfId="38" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="MAR" dataDxfId="37" totalsRowDxfId="15"/>
-    <tableColumn id="5" name="ABR" dataDxfId="36" totalsRowDxfId="14"/>
-    <tableColumn id="6" name="MAI" dataDxfId="35" totalsRowDxfId="13"/>
-    <tableColumn id="7" name="JUN" dataDxfId="34" totalsRowDxfId="12"/>
-    <tableColumn id="8" name="JUL" dataDxfId="33" totalsRowDxfId="11"/>
-    <tableColumn id="9" name="AGO" dataDxfId="32" totalsRowDxfId="10"/>
-    <tableColumn id="10" name="SET" dataDxfId="31" totalsRowDxfId="9"/>
-    <tableColumn id="11" name="OUT" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="12" name="NOV" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="13" name="DEZ" dataDxfId="28" totalsRowDxfId="6"/>
-    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="5"/>
-    <tableColumn id="21" name="TOTAL" dataDxfId="24" totalsRowDxfId="4">
+    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="18" name="MESES" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="2" name="JAN" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="3" name="FEV" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="4" name="MAR" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="5" name="ABR" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="6" name="MAI" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="7" name="JUN" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="8" name="JUL" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="9" name="AGO" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="10" name="SET" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="11" name="OUT" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" name="NOV" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="13" name="DEZ" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="21" name="TOTAL" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="ANO BASE" dataDxfId="23" totalsRowDxfId="3">
+    <tableColumn id="14" name="ANO BASE" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>SUMPRODUCT(N(Tabela2[ANO]&lt;=Tabela2[[#This Row],[ANO]]),Tabela2[TOTAL])+SUMPRODUCT(N(Tabela2[ANO]=Tabela2[[#This Row],[ANO]]-1),Tabela2[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTANTE" dataDxfId="22" totalsRowDxfId="2">
+    <tableColumn id="16" name="MONTANTE" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>Tabela2[ANO BASE]+Tabela2[LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="% a.a" dataDxfId="21" totalsRowDxfId="1">
+    <tableColumn id="17" name="% a.a" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>IF(Tabela2[ANO BASE]=0,0,Tabela2[LUCRO]/Tabela2[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="% a.m" dataDxfId="20" totalsRowDxfId="0">
+    <tableColumn id="19" name="% a.m" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>Tabela2[% a.a]/Tabela2[MESES]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E10" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E9"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>(1+SUMPRODUCT(PRODUCT(Tabela22[RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1306,11 +1552,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1566,7 @@
     <col min="3" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
@@ -1467,7 +1713,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>572.30999999999995</v>
@@ -1482,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>735.79</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -1506,27 +1752,27 @@
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <v>-1890.88</v>
+        <v>-3464.54</v>
       </c>
       <c r="P3" s="3">
         <f>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</f>
-        <v>739.31</v>
+        <v>1475.1</v>
       </c>
       <c r="Q3" s="3">
         <f>SUMPRODUCT(N(Tabela2[ANO]&lt;=Tabela2[[#This Row],[ANO]]),Tabela2[TOTAL])+SUMPRODUCT(N(Tabela2[ANO]=Tabela2[[#This Row],[ANO]]-1),Tabela2[LUCRO])</f>
-        <v>7083.4699999999984</v>
+        <v>7819.2599999999993</v>
       </c>
       <c r="R3" s="3">
         <f>Tabela2[ANO BASE]+Tabela2[LUCRO]</f>
-        <v>5192.5899999999983</v>
+        <v>4354.7199999999993</v>
       </c>
       <c r="S3" s="4">
         <f>IF(Tabela2[ANO BASE]=0,0,Tabela2[LUCRO]/Tabela2[ANO BASE])</f>
-        <v>-0.26694261428367744</v>
+        <v>-0.44307773369858533</v>
       </c>
       <c r="T3" s="4">
         <f>Tabela2[% a.a]/Tabela2[MESES]</f>
-        <v>-0.13347130714183872</v>
+        <v>-8.8615546739717069E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -1534,8 +1780,8 @@
         <v>19</v>
       </c>
       <c r="O4" s="3">
-        <f>SUBTOTAL(109,O2:O3)</f>
-        <v>-1573.18</v>
+        <f>SUBTOTAL(109,Tabela2[LUCRO])</f>
+        <v>-3146.84</v>
       </c>
       <c r="P4" s="3"/>
       <c r="T4" s="4"/>
@@ -1556,12 +1802,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>40817</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2099.15</v>
+      </c>
+      <c r="C2" s="8">
+        <v>6.08</v>
+      </c>
+      <c r="D2" s="8">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>2105.23</v>
+      </c>
+      <c r="E2" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>2.8964104518495581E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>40848</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2607.9899999999998</v>
+      </c>
+      <c r="C3" s="8">
+        <v>14.22</v>
+      </c>
+      <c r="D3" s="8">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>4727.4399999999996</v>
+      </c>
+      <c r="E3" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>3.0170456715366569E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>40878</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1319.32</v>
+      </c>
+      <c r="C4" s="8">
+        <v>297.39999999999998</v>
+      </c>
+      <c r="D4" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>6344.1599999999989</v>
+      </c>
+      <c r="E4" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>4.9183364314112021E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>40909</v>
+      </c>
+      <c r="B5" s="8">
+        <v>572.30999999999995</v>
+      </c>
+      <c r="C5" s="8">
+        <v>-466.58</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>6449.8899999999985</v>
+      </c>
+      <c r="E5" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>-6.7459267516522176E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>40940</v>
+      </c>
+      <c r="B6" s="8">
+        <v>167</v>
+      </c>
+      <c r="C6" s="8">
+        <v>-1345.15</v>
+      </c>
+      <c r="D6" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>5271.739999999998</v>
+      </c>
+      <c r="E6" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>-0.20329036752915652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>40969</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-554.19000000000005</v>
+      </c>
+      <c r="D7" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>4717.5499999999984</v>
+      </c>
+      <c r="E7" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>-0.10512468369077388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>41000</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-1162.72</v>
+      </c>
+      <c r="D8" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>3554.8299999999981</v>
+      </c>
+      <c r="E8" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>-0.24646691608991964</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>41030</v>
+      </c>
+      <c r="B9" s="8">
+        <v>735.79</v>
+      </c>
+      <c r="C9" s="8">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="D9" s="11">
+        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <v>4354.7199999999975</v>
+      </c>
+      <c r="E9" s="9">
+        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <v>1.4939565843630999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f>SUBTOTAL(103,Tabela22[DATA])</f>
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <f>SUBTOTAL(109,Tabela22[APLICAÇÃO])</f>
+        <v>7501.5599999999986</v>
+      </c>
+      <c r="C10" s="12">
+        <f>SUBTOTAL(109,Tabela22[LUCRO])</f>
+        <v>-3146.8400000000006</v>
+      </c>
+      <c r="D10" s="9">
+        <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
+        <v>-0.41949141245287663</v>
+      </c>
+      <c r="E10" s="4">
+        <f>(1+SUMPRODUCT(PRODUCT(Tabela22[RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
+        <v>-7.4852269656753179E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C14" s="12"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="13"/>
+    </row>
+  </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1569,6 +2034,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
@@ -11,9 +11,32 @@
     <sheet name="PATRIMONIO" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Engelbert</author>
+  </authors>
+  <commentList>
+    <comment ref="D10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>RENTABILIDADE ACUMULADA DA CARTEIRA</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -94,13 +117,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,6 +147,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,7 +174,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
@@ -153,7 +183,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -162,16 +192,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -231,6 +261,59 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -249,60 +332,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -371,7 +401,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -477,534 +507,534 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -1107,7 +1137,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1142,16 +1172,16 @@
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="ANO BASE" dataDxfId="18" totalsRowDxfId="17">
-      <calculatedColumnFormula>SUMPRODUCT(N(Tabela2[ANO]&lt;=Tabela2[[#This Row],[ANO]]),Tabela2[TOTAL])+SUMPRODUCT(N(Tabela2[ANO]=Tabela2[[#This Row],[ANO]]-1),Tabela2[LUCRO])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" name="MONTANTE" dataDxfId="16" totalsRowDxfId="15">
-      <calculatedColumnFormula>Tabela2[ANO BASE]+Tabela2[LUCRO]</calculatedColumnFormula>
+      <calculatedColumnFormula>[ANO BASE]+[LUCRO]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="17" name="% a.a" dataDxfId="14" totalsRowDxfId="13">
-      <calculatedColumnFormula>IF(Tabela2[ANO BASE]=0,0,Tabela2[LUCRO]/Tabela2[ANO BASE])</calculatedColumnFormula>
+      <calculatedColumnFormula>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="19" name="% a.m" dataDxfId="12" totalsRowDxfId="11">
-      <calculatedColumnFormula>Tabela2[% a.a]/Tabela2[MESES]</calculatedColumnFormula>
+      <calculatedColumnFormula>[% a.a]/[MESES]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1162,16 +1192,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E10" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</calculatedColumnFormula>
-      <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</calculatedColumnFormula>
-      <totalsRowFormula>(1+SUMPRODUCT(PRODUCT(Tabela22[RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1474,11 +1504,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1488,7 +1518,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1516,11 +1546,11 @@
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="090000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+          <a:srgbClr val="090000"/>
         </a:solidFill>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="400000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+            <a:srgbClr val="400000"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:round/>
@@ -1530,7 +1560,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1549,17 +1579,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1579,7 +1609,7 @@
     <col min="21" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1641,7 +1671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>2011</v>
       </c>
@@ -1692,23 +1722,23 @@
         <v>6026.4599999999991</v>
       </c>
       <c r="Q2" s="3">
-        <f>SUMPRODUCT(N(Tabela2[ANO]&lt;=Tabela2[[#This Row],[ANO]]),Tabela2[TOTAL])+SUMPRODUCT(N(Tabela2[ANO]=Tabela2[[#This Row],[ANO]]-1),Tabela2[LUCRO])</f>
+        <f>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</f>
         <v>6026.4599999999991</v>
       </c>
       <c r="R2" s="3">
-        <f>Tabela2[ANO BASE]+Tabela2[LUCRO]</f>
+        <f>[ANO BASE]+[LUCRO]</f>
         <v>6344.1599999999989</v>
       </c>
       <c r="S2" s="4">
-        <f>IF(Tabela2[ANO BASE]=0,0,Tabela2[LUCRO]/Tabela2[ANO BASE])</f>
+        <f>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</f>
         <v>5.2717515755518168E-2</v>
       </c>
       <c r="T2" s="4">
-        <f>Tabela2[% a.a]/Tabela2[MESES]</f>
+        <f>[% a.a]/[MESES]</f>
         <v>1.7572505251839388E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="2">
         <v>2012</v>
       </c>
@@ -1759,28 +1789,28 @@
         <v>1475.1</v>
       </c>
       <c r="Q3" s="3">
-        <f>SUMPRODUCT(N(Tabela2[ANO]&lt;=Tabela2[[#This Row],[ANO]]),Tabela2[TOTAL])+SUMPRODUCT(N(Tabela2[ANO]=Tabela2[[#This Row],[ANO]]-1),Tabela2[LUCRO])</f>
+        <f>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</f>
         <v>7819.2599999999993</v>
       </c>
       <c r="R3" s="3">
-        <f>Tabela2[ANO BASE]+Tabela2[LUCRO]</f>
+        <f>[ANO BASE]+[LUCRO]</f>
         <v>4354.7199999999993</v>
       </c>
       <c r="S3" s="4">
-        <f>IF(Tabela2[ANO BASE]=0,0,Tabela2[LUCRO]/Tabela2[ANO BASE])</f>
+        <f>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</f>
         <v>-0.44307773369858533</v>
       </c>
       <c r="T3" s="4">
-        <f>Tabela2[% a.a]/Tabela2[MESES]</f>
+        <f>[% a.a]/[MESES]</f>
         <v>-8.8615546739717069E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="3">
-        <f>SUBTOTAL(109,Tabela2[LUCRO])</f>
+        <f>SUBTOTAL(109,[LUCRO])</f>
         <v>-3146.84</v>
       </c>
       <c r="P4" s="3"/>
@@ -1801,14 +1831,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
@@ -1827,7 +1857,7 @@
     <col min="18" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1844,7 +1874,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="7">
         <v>40817</v>
       </c>
@@ -1855,15 +1885,15 @@
         <v>6.08</v>
       </c>
       <c r="D2" s="8">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>2105.23</v>
       </c>
       <c r="E2" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>2.8964104518495581E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>40848</v>
       </c>
@@ -1874,15 +1904,15 @@
         <v>14.22</v>
       </c>
       <c r="D3" s="8">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4727.4399999999996</v>
       </c>
       <c r="E3" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>3.0170456715366569E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="7">
         <v>40878</v>
       </c>
@@ -1893,15 +1923,15 @@
         <v>297.39999999999998</v>
       </c>
       <c r="D4" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6344.1599999999989</v>
       </c>
       <c r="E4" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>4.9183364314112021E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7">
         <v>40909</v>
       </c>
@@ -1912,15 +1942,15 @@
         <v>-466.58</v>
       </c>
       <c r="D5" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6449.8899999999985</v>
       </c>
       <c r="E5" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-6.7459267516522176E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7">
         <v>40940</v>
       </c>
@@ -1931,15 +1961,15 @@
         <v>-1345.15</v>
       </c>
       <c r="D6" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>5271.739999999998</v>
       </c>
       <c r="E6" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.20329036752915652</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="7">
         <v>40969</v>
       </c>
@@ -1950,15 +1980,15 @@
         <v>-554.19000000000005</v>
       </c>
       <c r="D7" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4717.5499999999984</v>
       </c>
       <c r="E7" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.10512468369077388</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="7">
         <v>41000</v>
       </c>
@@ -1969,16 +1999,16 @@
         <v>-1162.72</v>
       </c>
       <c r="D8" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>3554.8299999999981</v>
       </c>
       <c r="E8" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.24646691608991964</v>
       </c>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="7">
         <v>41030</v>
       </c>
@@ -1986,44 +2016,44 @@
         <v>735.79</v>
       </c>
       <c r="C9" s="8">
-        <v>64.099999999999994</v>
+        <v>218.3</v>
       </c>
       <c r="D9" s="11">
-        <f>SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[APLICAÇÃO]) + SUMPRODUCT(N(Tabela22[DATA]&lt;=Tabela22[[#This Row],[DATA]]),Tabela22[LUCRO])</f>
-        <v>4354.7199999999975</v>
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>4508.9199999999983</v>
       </c>
       <c r="E9" s="9">
-        <f>Tabela22[LUCRO]/(Tabela22[MONTANTE] - Tabela22[LUCRO])</f>
-        <v>1.4939565843630999E-2</v>
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <v>5.087842782628154E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
-        <f>SUBTOTAL(103,Tabela22[DATA])</f>
+        <f>SUBTOTAL(103,[DATA])</f>
         <v>8</v>
       </c>
       <c r="B10" s="12">
-        <f>SUBTOTAL(109,Tabela22[APLICAÇÃO])</f>
+        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
         <v>7501.5599999999986</v>
       </c>
       <c r="C10" s="12">
-        <f>SUBTOTAL(109,Tabela22[LUCRO])</f>
-        <v>-3146.8400000000006</v>
+        <f>SUBTOTAL(109,[LUCRO])</f>
+        <v>-2992.6400000000003</v>
       </c>
       <c r="D10" s="9">
-        <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.41949141245287663</v>
+        <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
+        <v>-0.44435041336131875</v>
       </c>
       <c r="E10" s="4">
-        <f>(1+SUMPRODUCT(PRODUCT(Tabela22[RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-7.4852269656753179E-2</v>
+        <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
+        <v>-7.0819419913012771E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="C14" s="12"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="D15" s="13"/>
     </row>
   </sheetData>
@@ -2034,19 +2064,20 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -1518,7 +1518,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1560,7 +1560,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1835,7 +1835,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2016,15 +2016,15 @@
         <v>735.79</v>
       </c>
       <c r="C9" s="8">
-        <v>218.3</v>
+        <v>419.21</v>
       </c>
       <c r="D9" s="11">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>4508.9199999999983</v>
+        <v>4709.8299999999981</v>
       </c>
       <c r="E9" s="9">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>5.087842782628154E-2</v>
+        <v>9.7703828351147423E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2038,15 +2038,15 @@
       </c>
       <c r="C10" s="12">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2992.6400000000003</v>
+        <v>-2791.7300000000005</v>
       </c>
       <c r="D10" s="9">
         <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
-        <v>-0.44435041336131875</v>
+        <v>-0.41959158897508497</v>
       </c>
       <c r="E10" s="4">
         <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-7.0819419913012771E-2</v>
+        <v>-6.5742243517399324E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -118,10 +118,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -191,7 +192,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -202,6 +202,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -225,6 +226,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -333,23 +352,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1192,14 +1194,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E10" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="5"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
@@ -1518,7 +1520,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1560,7 +1562,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1835,15 +1837,15 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1870,161 +1872,161 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="7">
+      <c r="A2" s="15">
         <v>40817</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>2099.15</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>6.08</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>2105.23</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>2.8964104518495581E-3</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>40848</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2607.9899999999998</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>14.22</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4727.4399999999996</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>3.0170456715366569E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="15">
         <v>40878</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>1319.32</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>297.39999999999998</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6344.1599999999989</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>4.9183364314112021E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7">
+      <c r="A5" s="15">
         <v>40909</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>572.30999999999995</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>-466.58</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6449.8899999999985</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-6.7459267516522176E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="7">
+      <c r="A6" s="15">
         <v>40940</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>167</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>-1345.15</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>5271.739999999998</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.20329036752915652</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="7">
+      <c r="A7" s="15">
         <v>40969</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>-554.19000000000005</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4717.5499999999984</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.10512468369077388</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="7">
+      <c r="A8" s="15">
         <v>41000</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>-1162.72</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>3554.8299999999981</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.24646691608991964</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="7">
+      <c r="A9" s="15">
         <v>41030</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>735.79</v>
       </c>
-      <c r="C9" s="8">
-        <v>419.21</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="C9" s="7">
+        <v>431.77</v>
+      </c>
+      <c r="D9" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>4709.8299999999981</v>
-      </c>
-      <c r="E9" s="9">
+        <v>4722.3899999999976</v>
+      </c>
+      <c r="E9" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>9.7703828351147423E-2</v>
+        <v>0.10063114421691977</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2032,29 +2034,29 @@
         <f>SUBTOTAL(103,[DATA])</f>
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
         <v>7501.5599999999986</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2791.7300000000005</v>
-      </c>
-      <c r="D10" s="9">
+        <v>-2779.1700000000005</v>
+      </c>
+      <c r="D10" s="8">
         <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
-        <v>-0.41959158897508497</v>
+        <v>-0.41804377734653941</v>
       </c>
       <c r="E10" s="4">
         <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-6.5742243517399324E-2</v>
+        <v>-6.5431175768892125E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="C14" s="12"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -122,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$R$-416]\ #,##0.00;[Red]\-[$R$-416]\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
-    <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -202,7 +202,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -226,24 +226,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -280,6 +262,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -333,24 +333,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -369,6 +351,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
     </dxf>
     <dxf>
       <font>
@@ -1194,14 +1194,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E10" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="0" totalsRowDxfId="5"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
@@ -1520,7 +1520,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1562,7 +1562,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1837,7 +1837,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -21,7 +21,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="D10" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -124,7 +124,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -155,6 +155,11 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +183,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +208,12 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -262,60 +273,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1191,17 +1202,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E10" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E11" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
@@ -1520,7 +1531,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1562,7 +1573,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1834,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2018,45 +2029,65 @@
         <v>735.79</v>
       </c>
       <c r="C9" s="7">
-        <v>431.77</v>
+        <v>502.85</v>
       </c>
       <c r="D9" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>4722.3899999999976</v>
+        <v>4793.4699999999975</v>
       </c>
       <c r="E9" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>0.10063114421691977</v>
+        <v>0.11719751457831278</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2">
+      <c r="A10" s="15">
+        <v>41061</v>
+      </c>
+      <c r="B10" s="7">
+        <v>249.4</v>
+      </c>
+      <c r="C10" s="16">
+        <v>497.4</v>
+      </c>
+      <c r="D10" s="17">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>5540.2699999999977</v>
+      </c>
+      <c r="E10" s="18">
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <v>9.8634309430939163E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
         <f>SUBTOTAL(103,[DATA])</f>
-        <v>8</v>
-      </c>
-      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20">
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
-        <v>7501.5599999999986</v>
-      </c>
-      <c r="C10" s="11">
+        <v>7750.9599999999982</v>
+      </c>
+      <c r="C11" s="20">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2779.1700000000005</v>
-      </c>
-      <c r="D10" s="8">
+        <v>-2210.6900000000005</v>
+      </c>
+      <c r="D11" s="21">
         <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
-        <v>-0.41804377734653941</v>
-      </c>
-      <c r="E10" s="4">
+        <v>-0.35101951602356329</v>
+      </c>
+      <c r="E11" s="21">
         <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-6.5431175768892125E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="11"/>
-      <c r="D14" s="14"/>
+        <v>-4.6903557417693253E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="D15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -273,6 +273,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -309,24 +327,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1205,14 +1205,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E11" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
@@ -1531,7 +1531,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1573,7 +1573,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -273,60 +273,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1205,14 +1205,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E11" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
     </tableColumn>
@@ -1531,7 +1531,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1573,7 +1573,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2029,15 +2029,15 @@
         <v>735.79</v>
       </c>
       <c r="C9" s="7">
-        <v>502.85</v>
+        <v>513.62</v>
       </c>
       <c r="D9" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>4793.4699999999975</v>
+        <v>4804.239999999998</v>
       </c>
       <c r="E9" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>0.11719751457831278</v>
+        <v>0.11970764131990254</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2048,15 +2048,15 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>497.4</v>
+        <v>270.06</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>5540.2699999999977</v>
+        <v>5323.6999999999971</v>
       </c>
       <c r="E10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>9.8634309430939163E-2</v>
+        <v>5.3438709524224158E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2070,15 +2070,15 @@
       </c>
       <c r="C11" s="20">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2210.6900000000005</v>
+        <v>-2427.2600000000007</v>
       </c>
       <c r="D11" s="21">
         <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
-        <v>-0.35101951602356329</v>
+        <v>-0.37631911540138996</v>
       </c>
       <c r="E11" s="21">
         <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-4.6903557417693253E-2</v>
+        <v>-5.1105240474377367E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>RENTABILIDADE ACUMULADA DA CARTEIRA</t>
+          <t>RENDIMENTO TOTAL</t>
         </r>
       </text>
     </comment>
@@ -326,25 +326,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1208,13 +1208,13 @@
     <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
     <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
     <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
-      <totalsRowFormula>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</totalsRowFormula>
+      <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
-      <totalsRowFormula>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</totalsRowFormula>
+      <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1531,7 +1531,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1573,7 +1573,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2048,15 +2048,15 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>270.06</v>
+        <v>1411.4</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>5323.6999999999971</v>
+        <v>6465.0399999999972</v>
       </c>
       <c r="E10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>5.3438709524224158E-2</v>
+        <v>0.27928384293301478</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2070,15 +2070,15 @@
       </c>
       <c r="C11" s="20">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2427.2600000000007</v>
+        <v>-1285.9200000000005</v>
       </c>
       <c r="D11" s="21">
-        <f>SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1)</f>
-        <v>-0.37631911540138996</v>
+        <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
+        <v>-0.16590461052566402</v>
       </c>
       <c r="E11" s="21">
-        <f>(1+SUMPRODUCT(PRODUCT([RENT. % a.m.]+1)-1))^(1/Tabela22[[#Totals],[DATA]])-1</f>
-        <v>-5.1105240474377367E-2</v>
+        <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
+        <v>-1.5003599641014609E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7">

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -29,7 +29,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>RENDIMENTO TOTAL</t>
         </r>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>ANO</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>RENT. % a.m.</t>
+  </si>
+  <si>
+    <t>MONTANTE - LUCRO</t>
+  </si>
+  <si>
+    <t>META MIN</t>
   </si>
 </sst>
 </file>
@@ -153,11 +159,12 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -183,7 +190,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -211,16 +218,13 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="57">
     <dxf>
       <font>
         <b val="0"/>
@@ -273,6 +277,42 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -344,7 +384,43 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1163,37 +1239,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="18" name="MESES" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="2" name="JAN" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="3" name="FEV" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="4" name="MAR" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="5" name="ABR" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="6" name="MAI" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="7" name="JUN" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="8" name="JUL" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="9" name="AGO" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="10" name="SET" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="11" name="OUT" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="12" name="NOV" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="13" name="DEZ" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="21" name="TOTAL" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="18" name="MESES" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" name="JAN" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" name="FEV" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="4" name="MAR" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" name="ABR" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="6" name="MAI" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="7" name="JUN" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="8" name="JUL" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="9" name="AGO" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="10" name="SET" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="11" name="OUT" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="12" name="NOV" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="13" name="DEZ" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="21" name="TOTAL" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="ANO BASE" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="14" name="ANO BASE" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTANTE" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="16" name="MONTANTE" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>[ANO BASE]+[LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="% a.a" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="17" name="% a.a" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="% a.m" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="19" name="% a.m" dataDxfId="16" totalsRowDxfId="15">
       <calculatedColumnFormula>[% a.a]/[MESES]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1202,19 +1278,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:E11" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:E10"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="8" totalsRowDxfId="4"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Moeda">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:G11" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:G10">
+    <filterColumn colId="4"/>
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="6"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0" dataCellStyle="Porcentagem">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="META MIN" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1531,7 +1616,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1573,7 +1658,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1848,7 +1933,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -1857,9 +1942,8 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -1870,7 +1954,7 @@
     <col min="18" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1">
+    <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1883,11 +1967,17 @@
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
+    <row r="2" spans="1:9" s="1" customFormat="1">
       <c r="A2" s="15">
         <v>40817</v>
       </c>
@@ -1901,12 +1991,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>2105.23</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>2099.15</v>
+      </c>
+      <c r="F2" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>2.8964104518495581E-3</v>
       </c>
+      <c r="G2" s="7">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>62.974499999999999</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" s="15">
         <v>40848</v>
       </c>
@@ -1920,12 +2018,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4727.4399999999996</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>4713.2199999999993</v>
+      </c>
+      <c r="F3" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>3.0170456715366569E-3</v>
       </c>
+      <c r="G3" s="7">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>141.39659999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" s="15">
         <v>40878</v>
       </c>
@@ -1939,12 +2045,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6344.1599999999989</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>6046.7599999999993</v>
+      </c>
+      <c r="F4" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>4.9183364314112021E-2</v>
       </c>
+      <c r="G4" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>181.40279999999998</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5" s="15">
         <v>40909</v>
       </c>
@@ -1958,12 +2072,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>6449.8899999999985</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>6916.4699999999984</v>
+      </c>
+      <c r="F5" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-6.7459267516522176E-2</v>
       </c>
+      <c r="G5" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>207.49409999999995</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6" s="15">
         <v>40940</v>
       </c>
@@ -1977,12 +2099,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>5271.739999999998</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>6616.8899999999976</v>
+      </c>
+      <c r="F6" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.20329036752915652</v>
       </c>
+      <c r="G6" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>198.50669999999991</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7" s="15">
         <v>40969</v>
       </c>
@@ -1996,12 +2126,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4717.5499999999984</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>5271.739999999998</v>
+      </c>
+      <c r="F7" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.10512468369077388</v>
       </c>
+      <c r="G7" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>158.15219999999994</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="15">
         <v>41000</v>
       </c>
@@ -2015,13 +2153,21 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>3554.8299999999981</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>4717.5499999999984</v>
+      </c>
+      <c r="F8" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.24646691608991964</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>141.52649999999994</v>
+      </c>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9" s="15">
         <v>41030</v>
       </c>
@@ -2035,12 +2181,20 @@
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
         <v>4804.239999999998</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>4290.6199999999981</v>
+      </c>
+      <c r="F9" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>0.11970764131990254</v>
       </c>
+      <c r="G9" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>128.71859999999992</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="15">
         <v>41061</v>
       </c>
@@ -2048,45 +2202,55 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>1411.4</v>
+        <v>256.25</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>6465.0399999999972</v>
-      </c>
-      <c r="E10" s="18">
+        <v>5309.8899999999976</v>
+      </c>
+      <c r="E10" s="17">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>5053.6399999999976</v>
+      </c>
+      <c r="F10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>0.27928384293301478</v>
+        <v>5.0706025755692948E-2</v>
+      </c>
+      <c r="G10" s="17">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>151.60919999999993</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
         <f>SUBTOTAL(103,[DATA])</f>
         <v>9</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="11">
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
         <v>7750.9599999999982</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-1285.9200000000005</v>
-      </c>
-      <c r="D11" s="21">
+        <v>-2441.0700000000006</v>
+      </c>
+      <c r="D11" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.16590461052566402</v>
-      </c>
-      <c r="E11" s="21">
+        <v>-0.31493776254812322</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-1.5003599641014609E-2</v>
-      </c>
+        <v>-3.1028874328951961E-2</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="C15" s="11"/>
       <c r="D15" s="14"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="D16" s="12"/>
     </row>
   </sheetData>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -384,25 +384,25 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1291,10 +1291,10 @@
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
@@ -1616,7 +1616,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1658,7 +1658,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2202,11 +2202,11 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>256.25</v>
+        <v>1029.9100000000001</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>5309.8899999999976</v>
+        <v>6083.5499999999975</v>
       </c>
       <c r="E10" s="17">
         <f>[MONTANTE] - [LUCRO]</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>5.0706025755692948E-2</v>
+        <v>0.20379567994554432</v>
       </c>
       <c r="G10" s="17">
         <f>[MONTANTE - LUCRO] * 3%</f>
@@ -2232,18 +2232,21 @@
       </c>
       <c r="C11" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2441.0700000000006</v>
+        <v>-1667.4100000000005</v>
       </c>
       <c r="D11" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.31493776254812322</v>
+        <v>-0.21512302992145502</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-3.1028874328951961E-2</v>
+        <v>-1.9983324479223907E-2</v>
       </c>
       <c r="G11" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="C13" s="11"/>
     </row>
     <row r="15" spans="1:9">
       <c r="C15" s="11"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -1616,7 +1616,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1658,7 +1658,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1933,7 +1933,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2202,11 +2202,11 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>1029.9100000000001</v>
+        <v>1100.3</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>6083.5499999999975</v>
+        <v>6153.9399999999978</v>
       </c>
       <c r="E10" s="17">
         <f>[MONTANTE] - [LUCRO]</f>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="F10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>0.20379567994554432</v>
+        <v>0.2177242542009325</v>
       </c>
       <c r="G10" s="17">
         <f>[MONTANTE - LUCRO] * 3%</f>
@@ -2232,16 +2232,16 @@
       </c>
       <c r="C11" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-1667.4100000000005</v>
+        <v>-1597.0200000000007</v>
       </c>
       <c r="D11" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.21512302992145502</v>
+        <v>-0.20604157420500183</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-1.9983324479223907E-2</v>
+        <v>-1.9043354873575891E-2</v>
       </c>
       <c r="G11" s="4"/>
     </row>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -21,7 +21,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="D12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>ANO</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>META MIN</t>
+  </si>
+  <si>
+    <t>META MAX</t>
   </si>
 </sst>
 </file>
@@ -224,7 +227,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -349,6 +369,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1239,37 +1277,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="56" dataDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="18" name="MESES" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" name="JAN" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" name="FEV" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="4" name="MAR" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" name="ABR" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="6" name="MAI" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="7" name="JUN" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="8" name="JUL" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="9" name="AGO" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="10" name="SET" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="11" name="OUT" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="12" name="NOV" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="13" name="DEZ" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="21" name="TOTAL" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="18" name="MESES" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" name="JAN" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" name="FEV" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="4" name="MAR" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="5" name="ABR" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="6" name="MAI" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="7" name="JUN" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="8" name="JUL" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="9" name="AGO" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="10" name="SET" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="11" name="OUT" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="12" name="NOV" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="13" name="DEZ" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="21" name="TOTAL" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="ANO BASE" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="14" name="ANO BASE" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTANTE" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="16" name="MONTANTE" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>[ANO BASE]+[LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="% a.a" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="17" name="% a.a" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="% a.m" dataDxfId="16" totalsRowDxfId="15">
+    <tableColumn id="19" name="% a.m" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>[% a.a]/[MESES]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1278,28 +1316,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:G11" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:G10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:H12" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:H11">
     <filterColumn colId="4"/>
     <filterColumn colId="6"/>
+    <filterColumn colId="7"/>
   </autoFilter>
-  <tableColumns count="7">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="12" totalsRowDxfId="6"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Moeda">
+  <tableColumns count="8">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="9" totalsRowDxfId="2" dataCellStyle="Moeda">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="META MAX" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1616,7 +1658,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1658,7 +1700,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1930,10 +1972,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -1944,7 +1986,7 @@
     <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="2" hidden="1" customWidth="1"/>
@@ -1954,7 +1996,7 @@
     <col min="18" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1">
+    <row r="1" spans="1:10" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -1976,8 +2018,11 @@
       <c r="G1" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1">
+    <row r="2" spans="1:10" s="1" customFormat="1">
       <c r="A2" s="15">
         <v>40817</v>
       </c>
@@ -2003,8 +2048,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>62.974499999999999</v>
       </c>
+      <c r="H2" s="7">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>419.83000000000004</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="15">
         <v>40848</v>
       </c>
@@ -2030,8 +2079,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>141.39659999999998</v>
       </c>
+      <c r="H3" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>942.64399999999989</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="15">
         <v>40878</v>
       </c>
@@ -2057,8 +2110,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>181.40279999999998</v>
       </c>
+      <c r="H4" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1209.3519999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="15">
         <v>40909</v>
       </c>
@@ -2084,8 +2141,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>207.49409999999995</v>
       </c>
+      <c r="H5" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1383.2939999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="15">
         <v>40940</v>
       </c>
@@ -2111,8 +2172,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>198.50669999999991</v>
       </c>
+      <c r="H6" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1323.3779999999997</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="15">
         <v>40969</v>
       </c>
@@ -2138,8 +2203,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>158.15219999999994</v>
       </c>
+      <c r="H7" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1054.3479999999997</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="15">
         <v>41000</v>
       </c>
@@ -2165,9 +2234,13 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>141.52649999999994</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="H8" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>943.50999999999976</v>
+      </c>
+      <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="15">
         <v>41030</v>
       </c>
@@ -2193,8 +2266,12 @@
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>128.71859999999992</v>
       </c>
+      <c r="H9" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>858.12399999999968</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="15">
         <v>41061</v>
       </c>
@@ -2202,11 +2279,11 @@
         <v>249.4</v>
       </c>
       <c r="C10" s="16">
-        <v>1100.3</v>
+        <v>916.88</v>
       </c>
       <c r="D10" s="17">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>6153.9399999999978</v>
+        <v>5970.5199999999977</v>
       </c>
       <c r="E10" s="17">
         <f>[MONTANTE] - [LUCRO]</f>
@@ -2214,47 +2291,82 @@
       </c>
       <c r="F10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>0.2177242542009325</v>
+        <v>0.18142962300440879</v>
       </c>
       <c r="G10" s="17">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>151.60919999999993</v>
       </c>
+      <c r="H10" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1010.7279999999996</v>
+      </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10">
+      <c r="A11" s="15">
+        <v>41091</v>
+      </c>
+      <c r="B11" s="7">
+        <v>250.45</v>
+      </c>
+      <c r="C11" s="7">
+        <v>403.09</v>
+      </c>
+      <c r="D11" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>6624.0599999999977</v>
+      </c>
+      <c r="E11" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>6220.9699999999975</v>
+      </c>
+      <c r="F11" s="8">
+        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <v>6.479536149507234E-2</v>
+      </c>
+      <c r="G11" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>186.62909999999991</v>
+      </c>
+      <c r="H11" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1244.1939999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
         <f>SUBTOTAL(103,[DATA])</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
-        <v>7750.9599999999982</v>
-      </c>
-      <c r="C11" s="11">
+        <v>8001.409999999998</v>
+      </c>
+      <c r="C12" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-1597.0200000000007</v>
-      </c>
-      <c r="D11" s="4">
+        <v>-1377.3500000000006</v>
+      </c>
+      <c r="D12" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.20604157420500183</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+        <v>-0.17213841060513096</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-1.9043354873575891E-2</v>
-      </c>
-      <c r="G11" s="4"/>
+        <v>-1.5619177201134704E-2</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9">
-      <c r="C13" s="11"/>
+    <row r="14" spans="1:10">
+      <c r="C14" s="11"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
+    <row r="16" spans="1:10">
+      <c r="C16" s="11"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="11"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="D16" s="12"/>
+    <row r="17" spans="4:4">
+      <c r="D17" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="PATRIMONIO" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="RF" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -39,8 +39,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Engelbert</author>
+  </authors>
+  <commentList>
+    <comment ref="D6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RENDIMENTO TOTAL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>ANO</t>
   </si>
@@ -227,7 +251,309 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1277,37 +1603,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="18" name="MESES" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" name="JAN" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" name="FEV" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="4" name="MAR" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="5" name="ABR" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="6" name="MAI" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="7" name="JUN" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="8" name="JUL" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="9" name="AGO" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="10" name="SET" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="11" name="OUT" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="12" name="NOV" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="13" name="DEZ" dataDxfId="30" totalsRowDxfId="29"/>
-    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="21" name="TOTAL" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="18" name="MESES" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" name="JAN" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="3" name="FEV" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="4" name="MAR" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="5" name="ABR" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="6" name="MAI" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="7" name="JUN" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="8" name="JUL" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="9" name="AGO" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="10" name="SET" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="11" name="OUT" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="12" name="NOV" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="13" name="DEZ" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="21" name="TOTAL" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="ANO BASE" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="14" name="ANO BASE" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTANTE" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="16" name="MONTANTE" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>[ANO BASE]+[LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="% a.a" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="17" name="% a.a" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="% a.m" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="19" name="% a.m" dataDxfId="35" totalsRowDxfId="34">
       <calculatedColumnFormula>[% a.a]/[MESES]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1316,31 +1642,58 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:H12" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:H12" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:H11">
     <filterColumn colId="4"/>
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="14" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="24"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="21" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="11" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="28" totalsRowDxfId="20" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="19" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="9" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" dataDxfId="26" totalsRowDxfId="18" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H6" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:H5"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="13" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="24" name="RENT. % a.m." dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="META MIN" dataDxfId="12" totalsRowDxfId="1" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="META MAX" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1658,7 +2011,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1700,7 +2053,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -1974,8 +2327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2310,11 +2663,11 @@
         <v>250.45</v>
       </c>
       <c r="C11" s="7">
-        <v>403.09</v>
+        <v>-1101.58</v>
       </c>
       <c r="D11" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>6624.0599999999977</v>
+        <v>5119.3899999999976</v>
       </c>
       <c r="E11" s="10">
         <f>[MONTANTE] - [LUCRO]</f>
@@ -2322,7 +2675,7 @@
       </c>
       <c r="F11" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>6.479536149507234E-2</v>
+        <v>-0.1770752792570934</v>
       </c>
       <c r="G11" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
@@ -2344,16 +2697,16 @@
       </c>
       <c r="C12" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-1377.3500000000006</v>
+        <v>-2882.0200000000004</v>
       </c>
       <c r="D12" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.17213841060513096</v>
+        <v>-0.36018901668580927</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-1.5619177201134704E-2</v>
+        <v>-3.6531232252652646E-2</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -2385,12 +2738,211 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="6" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="15">
+        <v>41000</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>293.5</v>
+      </c>
+      <c r="D2" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>293.5</v>
+      </c>
+      <c r="E2" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="15">
+        <v>41030</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>409.3</v>
+      </c>
+      <c r="D3" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>702.8</v>
+      </c>
+      <c r="E3" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>293.49999999999994</v>
+      </c>
+      <c r="F3" s="8">
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <v>1.3945485519591145</v>
+      </c>
+      <c r="G3" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>8.8049999999999979</v>
+      </c>
+      <c r="H3" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>58.699999999999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="15">
+        <v>41061</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1037.6199999999999</v>
+      </c>
+      <c r="D4" s="17">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>1740.4199999999998</v>
+      </c>
+      <c r="E4" s="17">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>702.8</v>
+      </c>
+      <c r="F4" s="18">
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <v>1.4764086511098462</v>
+      </c>
+      <c r="G4" s="17">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>21.084</v>
+      </c>
+      <c r="H4" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>140.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="15">
+        <v>41091</v>
+      </c>
+      <c r="B5" s="7">
+        <v>-600</v>
+      </c>
+      <c r="C5" s="7">
+        <v>322.47000000000003</v>
+      </c>
+      <c r="D5" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>1462.8899999999999</v>
+      </c>
+      <c r="E5" s="10">
+        <f>[MONTANTE] - [LUCRO]</f>
+        <v>1140.4199999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <v>0.28276424475193357</v>
+      </c>
+      <c r="G5" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>34.212599999999995</v>
+      </c>
+      <c r="H5" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>228.08399999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
+        <f>SUBTOTAL(103,[DATA])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
+        <v>-600</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUBTOTAL(109,[LUCRO])</f>
+        <v>2062.89</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="C8" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11" s="12"/>
+    </row>
+  </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2398,5 +2950,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="D12" authorId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>ANO</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>META MAX</t>
+  </si>
+  <si>
+    <t>RESGATE</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,25 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="78">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -393,6 +414,59 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -431,6 +505,255 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -499,292 +822,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1603,37 +1641,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:T4" totalsRowCount="1" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="18" name="MESES" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" name="JAN" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="3" name="FEV" dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="4" name="MAR" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="5" name="ABR" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="6" name="MAI" dataDxfId="61" totalsRowDxfId="60"/>
-    <tableColumn id="7" name="JUN" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="8" name="JUL" dataDxfId="57" totalsRowDxfId="56"/>
-    <tableColumn id="9" name="AGO" dataDxfId="55" totalsRowDxfId="54"/>
-    <tableColumn id="10" name="SET" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="11" name="OUT" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="12" name="NOV" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="13" name="DEZ" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="21" name="TOTAL" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="1" name="ANO" totalsRowLabel="Total" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="18" name="MESES" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="2" name="JAN" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="3" name="FEV" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="4" name="MAR" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="5" name="ABR" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="6" name="MAI" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="7" name="JUN" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="8" name="JUL" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="9" name="AGO" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="10" name="SET" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="11" name="OUT" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="12" name="NOV" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="13" name="DEZ" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="15" name="LUCRO" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="21" name="TOTAL" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>SUM(Tabela2[[#This Row],[JAN]]:Tabela2[[#This Row],[DEZ]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="ANO BASE" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="14" name="ANO BASE" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>SUMPRODUCT(N([ANO]&lt;=Tabela2[[#This Row],[ANO]]),[TOTAL])+SUMPRODUCT(N([ANO]=Tabela2[[#This Row],[ANO]]-1),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="MONTANTE" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="16" name="MONTANTE" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>[ANO BASE]+[LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="% a.a" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="17" name="% a.a" dataDxfId="39" totalsRowDxfId="38">
       <calculatedColumnFormula>IF([ANO BASE]=0,0,[LUCRO]/[ANO BASE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="% a.m" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="19" name="% a.m" dataDxfId="37" totalsRowDxfId="36">
       <calculatedColumnFormula>[% a.a]/[MESES]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1642,31 +1680,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:H12" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:H11">
-    <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:I12" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:I11">
+    <filterColumn colId="2"/>
+    <filterColumn colId="5"/>
     <filterColumn colId="7"/>
+    <filterColumn colId="8"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="31" totalsRowDxfId="24"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="23" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="22" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="21" dataCellStyle="Moeda">
-      <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
+  <tableColumns count="9">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="9"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="RESGATE" dataDxfId="11" totalsRowDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="5" dataCellStyle="Moeda">
+      <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="28" totalsRowDxfId="20" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="0" totalsRowDxfId="4" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="19" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="3" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="26" totalsRowDxfId="18" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" dataDxfId="30" totalsRowDxfId="2" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="25" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" dataDxfId="29" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1675,25 +1715,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H6" totalsRowCount="1" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H6" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="16" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" dataDxfId="14" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="20"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="MONTANTE" dataDxfId="24" totalsRowDxfId="17" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="13" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="23" totalsRowDxfId="16" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." dataDxfId="8" totalsRowDxfId="2" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</calculatedColumnFormula>
+    <tableColumn id="24" name="RENT. % a.m." dataDxfId="12" totalsRowDxfId="15" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="12" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" dataDxfId="22" totalsRowDxfId="14" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="11" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" dataDxfId="21" totalsRowDxfId="13" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2011,7 +2051,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2053,7 +2093,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2327,20 +2367,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -2349,7 +2390,7 @@
     <col min="18" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1">
+    <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
@@ -2357,25 +2398,28 @@
         <v>22</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="A2" s="15">
         <v>40817</v>
       </c>
@@ -2383,30 +2427,33 @@
         <v>2099.15</v>
       </c>
       <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
         <v>6.08</v>
       </c>
-      <c r="D2" s="7">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E2" s="7">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>2105.23</v>
       </c>
-      <c r="E2" s="7">
-        <f>[MONTANTE] - [LUCRO]</f>
+      <c r="F2" s="7">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
         <v>2099.15</v>
       </c>
-      <c r="F2" s="8">
+      <c r="G2" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>2.8964104518495581E-3</v>
       </c>
-      <c r="G2" s="7">
+      <c r="H2" s="7">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>62.974499999999999</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <f>[MONTANTE - LUCRO] * 20%</f>
         <v>419.83000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="15">
         <v>40848</v>
       </c>
@@ -2414,30 +2461,33 @@
         <v>2607.9899999999998</v>
       </c>
       <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
         <v>14.22</v>
       </c>
-      <c r="D3" s="7">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E3" s="7">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4727.4399999999996</v>
       </c>
-      <c r="E3" s="7">
-        <f>[MONTANTE] - [LUCRO]</f>
+      <c r="F3" s="7">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
         <v>4713.2199999999993</v>
       </c>
-      <c r="F3" s="8">
+      <c r="G3" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>3.0170456715366569E-3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="7">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>141.39659999999998</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
         <v>942.64399999999989</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="15">
         <v>40878</v>
       </c>
@@ -2445,30 +2495,33 @@
         <v>1319.32</v>
       </c>
       <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>297.39999999999998</v>
       </c>
-      <c r="D4" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E4" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>6344.1599999999989</v>
       </c>
-      <c r="E4" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
+      <c r="F4" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
         <v>6046.7599999999993</v>
       </c>
-      <c r="F4" s="8">
+      <c r="G4" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>4.9183364314112021E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>181.40279999999998</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I4" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
         <v>1209.3519999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="15">
         <v>40909</v>
       </c>
@@ -2476,30 +2529,33 @@
         <v>572.30999999999995</v>
       </c>
       <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <v>-466.58</v>
       </c>
-      <c r="D5" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E5" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>6449.8899999999985</v>
       </c>
-      <c r="E5" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>6916.4699999999984</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <v>6449.8899999999985</v>
+      </c>
+      <c r="G5" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-6.7459267516522176E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>207.49409999999995</v>
-      </c>
-      <c r="H5" s="10">
+        <v>193.49669999999995</v>
+      </c>
+      <c r="I5" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1383.2939999999999</v>
+        <v>1289.9779999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="15">
         <v>40940</v>
       </c>
@@ -2507,30 +2563,33 @@
         <v>167</v>
       </c>
       <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <v>-1345.15</v>
       </c>
-      <c r="D6" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E6" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>5271.739999999998</v>
       </c>
-      <c r="E6" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>6616.8899999999976</v>
-      </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <v>5271.739999999998</v>
+      </c>
+      <c r="G6" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.20329036752915652</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>198.50669999999991</v>
-      </c>
-      <c r="H6" s="10">
+        <v>158.15219999999994</v>
+      </c>
+      <c r="I6" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1323.3779999999997</v>
+        <v>1054.3479999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="15">
         <v>40969</v>
       </c>
@@ -2538,30 +2597,33 @@
         <v>0</v>
       </c>
       <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <v>-554.19000000000005</v>
       </c>
-      <c r="D7" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E7" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4717.5499999999984</v>
       </c>
-      <c r="E7" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>5271.739999999998</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <v>4717.5499999999984</v>
+      </c>
+      <c r="G7" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.10512468369077388</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>158.15219999999994</v>
-      </c>
-      <c r="H7" s="10">
+        <v>141.52649999999994</v>
+      </c>
+      <c r="I7" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1054.3479999999997</v>
+        <v>943.50999999999976</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="15">
         <v>41000</v>
       </c>
@@ -2569,31 +2631,34 @@
         <v>0</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
         <v>-1162.72</v>
       </c>
-      <c r="D8" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E8" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>3554.8299999999981</v>
       </c>
-      <c r="E8" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>4717.5499999999984</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <v>3554.8299999999981</v>
+      </c>
+      <c r="G8" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>-0.24646691608991964</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>141.52649999999994</v>
-      </c>
-      <c r="H8" s="10">
+        <v>106.64489999999994</v>
+      </c>
+      <c r="I8" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>943.50999999999976</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>710.96599999999967</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="15">
         <v>41030</v>
       </c>
@@ -2601,61 +2666,67 @@
         <v>735.79</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
         <v>513.62</v>
       </c>
-      <c r="D9" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E9" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4804.239999999998</v>
       </c>
-      <c r="E9" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
+      <c r="F9" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
         <v>4290.6199999999981</v>
       </c>
-      <c r="F9" s="8">
+      <c r="G9" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>0.11970764131990254</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>128.71859999999992</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I9" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
         <v>858.12399999999968</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="15">
         <v>41061</v>
       </c>
       <c r="B10" s="7">
         <v>249.4</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
         <v>916.88</v>
       </c>
-      <c r="D10" s="17">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
+      <c r="E10" s="17">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>5970.5199999999977</v>
       </c>
-      <c r="E10" s="17">
-        <f>[MONTANTE] - [LUCRO]</f>
+      <c r="F10" s="17">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
         <v>5053.6399999999976</v>
       </c>
-      <c r="F10" s="18">
+      <c r="G10" s="18">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
         <v>0.18142962300440879</v>
       </c>
-      <c r="G10" s="17">
+      <c r="H10" s="17">
         <f>[MONTANTE - LUCRO] * 3%</f>
         <v>151.60919999999993</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I10" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
         <v>1010.7279999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="15">
         <v>41091</v>
       </c>
@@ -2663,30 +2734,33 @@
         <v>250.45</v>
       </c>
       <c r="C11" s="7">
-        <v>-1101.58</v>
-      </c>
-      <c r="D11" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>5119.3899999999976</v>
+        <v>-600</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-926.8</v>
       </c>
       <c r="E11" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>6220.9699999999975</v>
-      </c>
-      <c r="F11" s="8">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
+        <v>4694.1699999999973</v>
+      </c>
+      <c r="F11" s="10">
+        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <v>5294.1699999999973</v>
+      </c>
+      <c r="G11" s="8">
         <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-0.1770752792570934</v>
-      </c>
-      <c r="G11" s="10">
+        <v>-0.16488257364832054</v>
+      </c>
+      <c r="H11" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>186.62909999999991</v>
-      </c>
-      <c r="H11" s="10">
+        <v>158.82509999999991</v>
+      </c>
+      <c r="I11" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1244.1939999999995</v>
+        <v>1058.8339999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <f>SUBTOTAL(103,[DATA])</f>
         <v>10</v>
@@ -2695,25 +2769,26 @@
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
         <v>8001.409999999998</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2882.0200000000004</v>
-      </c>
-      <c r="D12" s="4">
+        <v>-2707.2400000000007</v>
+      </c>
+      <c r="E12" s="4">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.36018901668580927</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+        <v>-0.33834536662913178</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-3.6531232252652646E-2</v>
-      </c>
-      <c r="G12" s="4"/>
+        <v>-3.3832080422891431E-2</v>
+      </c>
+      <c r="H12" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="C14" s="11"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
       <c r="E16" s="11"/>
@@ -2740,8 +2815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2807,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
@@ -2839,7 +2914,7 @@
         <v>293.49999999999994</v>
       </c>
       <c r="F3" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
         <v>1.3945485519591145</v>
       </c>
       <c r="G3" s="10">
@@ -2870,7 +2945,7 @@
         <v>702.8</v>
       </c>
       <c r="F4" s="18">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
         <v>1.4764086511098462</v>
       </c>
       <c r="G4" s="17">
@@ -2901,8 +2976,8 @@
         <v>1140.4199999999998</v>
       </c>
       <c r="F5" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/([MONTANTE] - [LUCRO]))</f>
-        <v>0.28276424475193357</v>
+        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
+        <v>0.18528286275726552</v>
       </c>
       <c r="G5" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -45,7 +45,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="D11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ANO</t>
   </si>
@@ -149,6 +149,15 @@
   <si>
     <t>RESGATE</t>
   </si>
+  <si>
+    <t>PATRIMÔNIO</t>
+  </si>
+  <si>
+    <t>PATRIMONIO - LUCRO</t>
+  </si>
+  <si>
+    <t>PATRIMONIO</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +169,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -197,6 +206,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,7 +234,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +262,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -360,6 +383,76 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -378,6 +471,60 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -449,10 +596,64 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -502,95 +703,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -627,23 +739,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -662,6 +757,76 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -681,148 +846,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <font>
@@ -1688,26 +1711,26 @@
     <filterColumn colId="8"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="9"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="8" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="RESGATE" dataDxfId="11" totalsRowDxfId="7" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="5" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="16"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="RESGATE" dataDxfId="32" totalsRowDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="PATRIMÔNIO" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="0" totalsRowDxfId="4" dataCellStyle="Moeda">
-      <calculatedColumnFormula>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</calculatedColumnFormula>
+    <tableColumn id="2" name="PATRIMONIO - LUCRO" dataDxfId="20" totalsRowDxfId="11" dataCellStyle="Moeda">
+      <calculatedColumnFormula>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="3" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>[LUCRO]/([MONTANTE] - [LUCRO])</calculatedColumnFormula>
-      <totalsRowFormula>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</totalsRowFormula>
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>[LUCRO]/([PATRIMONIO - LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>(1 + Tabela22[[#Totals],[PATRIMÔNIO]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="30" totalsRowDxfId="2" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
+    <tableColumn id="3" name="META MIN" dataDxfId="31" totalsRowDxfId="9" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="29" totalsRowDxfId="1" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
+    <tableColumn id="4" name="META MAX" dataDxfId="30" totalsRowDxfId="8" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1715,25 +1738,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H6" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:H5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H11" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:H10"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="26" totalsRowDxfId="20"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="19" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="18" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="MONTANTE" dataDxfId="24" totalsRowDxfId="17" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="7"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="PATRIMONIO" dataDxfId="25" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="23" totalsRowDxfId="16" dataCellStyle="Moeda">
-      <calculatedColumnFormula>[MONTANTE] - [LUCRO]</calculatedColumnFormula>
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="18" totalsRowDxfId="3" dataCellStyle="Moeda">
+      <calculatedColumnFormula>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." dataDxfId="12" totalsRowDxfId="15" dataCellStyle="Porcentagem">
-      <calculatedColumnFormula>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</calculatedColumnFormula>
+    <tableColumn id="24" name="RENT. % a.m." dataDxfId="17" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="22" totalsRowDxfId="14" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="21" totalsRowDxfId="13" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2051,7 +2074,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2093,7 +2116,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2368,7 +2391,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2377,8 +2400,8 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -2404,10 +2427,10 @@
         <v>18</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>23</v>
@@ -2432,24 +2455,24 @@
       <c r="D2" s="7">
         <v>6.08</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="22">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>2105.23</v>
       </c>
       <c r="F2" s="7">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>2099.15</v>
       </c>
       <c r="G2" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
         <v>2.8964104518495581E-3</v>
       </c>
       <c r="H2" s="7">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>62.974499999999999</v>
       </c>
       <c r="I2" s="7">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>419.83000000000004</v>
       </c>
     </row>
@@ -2466,24 +2489,24 @@
       <c r="D3" s="7">
         <v>14.22</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="22">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4727.4399999999996</v>
       </c>
       <c r="F3" s="7">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>4713.2199999999993</v>
       </c>
       <c r="G3" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
         <v>3.0170456715366569E-3</v>
       </c>
       <c r="H3" s="7">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>141.39659999999998</v>
       </c>
       <c r="I3" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>942.64399999999989</v>
       </c>
     </row>
@@ -2500,24 +2523,24 @@
       <c r="D4" s="7">
         <v>297.39999999999998</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>6344.1599999999989</v>
       </c>
       <c r="F4" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>6046.7599999999993</v>
       </c>
       <c r="G4" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
         <v>4.9183364314112021E-2</v>
       </c>
       <c r="H4" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>181.40279999999998</v>
       </c>
       <c r="I4" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>1209.3519999999999</v>
       </c>
     </row>
@@ -2534,24 +2557,24 @@
       <c r="D5" s="7">
         <v>-466.58</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>6449.8899999999985</v>
       </c>
       <c r="F5" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>6449.8899999999985</v>
       </c>
       <c r="G5" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-6.7459267516522176E-2</v>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-7.2339218188217175E-2</v>
       </c>
       <c r="H5" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>193.49669999999995</v>
       </c>
       <c r="I5" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>1289.9779999999998</v>
       </c>
     </row>
@@ -2568,24 +2591,24 @@
       <c r="D6" s="7">
         <v>-1345.15</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>5271.739999999998</v>
       </c>
       <c r="F6" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>5271.739999999998</v>
       </c>
       <c r="G6" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-0.20329036752915652</v>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-0.25516243213815565</v>
       </c>
       <c r="H6" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>158.15219999999994</v>
       </c>
       <c r="I6" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>1054.3479999999997</v>
       </c>
     </row>
@@ -2602,24 +2625,24 @@
       <c r="D7" s="7">
         <v>-554.19000000000005</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4717.5499999999984</v>
       </c>
       <c r="F7" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>4717.5499999999984</v>
       </c>
       <c r="G7" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-0.10512468369077388</v>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-0.11747411262201783</v>
       </c>
       <c r="H7" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>141.52649999999994</v>
       </c>
       <c r="I7" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>943.50999999999976</v>
       </c>
     </row>
@@ -2636,24 +2659,24 @@
       <c r="D8" s="7">
         <v>-1162.72</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>3554.8299999999981</v>
       </c>
       <c r="F8" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>3554.8299999999981</v>
       </c>
       <c r="G8" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-0.24646691608991964</v>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-0.32708174511861343</v>
       </c>
       <c r="H8" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>106.64489999999994</v>
       </c>
       <c r="I8" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>710.96599999999967</v>
       </c>
       <c r="K8" s="13"/>
@@ -2671,24 +2694,24 @@
       <c r="D9" s="7">
         <v>513.62</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>4804.239999999998</v>
       </c>
       <c r="F9" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>4290.6199999999981</v>
       </c>
       <c r="G9" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
         <v>0.11970764131990254</v>
       </c>
       <c r="H9" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>128.71859999999992</v>
       </c>
       <c r="I9" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>858.12399999999968</v>
       </c>
     </row>
@@ -2705,24 +2728,24 @@
       <c r="D10" s="16">
         <v>916.88</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="24">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
         <v>5970.5199999999977</v>
       </c>
       <c r="F10" s="17">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
         <v>5053.6399999999976</v>
       </c>
       <c r="G10" s="18">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
         <v>0.18142962300440879</v>
       </c>
       <c r="H10" s="17">
-        <f>[MONTANTE - LUCRO] * 3%</f>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
         <v>151.60919999999993</v>
       </c>
       <c r="I10" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
         <v>1010.7279999999996</v>
       </c>
     </row>
@@ -2737,27 +2760,27 @@
         <v>-600</v>
       </c>
       <c r="D11" s="7">
-        <v>-926.8</v>
-      </c>
-      <c r="E11" s="10">
+        <v>-940.94</v>
+      </c>
+      <c r="E11" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
-        <v>4694.1699999999973</v>
+        <v>4680.029999999997</v>
       </c>
       <c r="F11" s="10">
-        <f>IF([LUCRO] &gt; 0, [MONTANTE] - [LUCRO] - [RESGATE], [MONTANTE] - [RESGATE])</f>
-        <v>5294.1699999999973</v>
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
+        <v>5280.029999999997</v>
       </c>
       <c r="G11" s="8">
-        <f>[LUCRO]/([MONTANTE] - [LUCRO])</f>
-        <v>-0.16488257364832054</v>
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-0.17820732079173804</v>
       </c>
       <c r="H11" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>158.82509999999991</v>
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
+        <v>158.40089999999989</v>
       </c>
       <c r="I11" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1058.8339999999996</v>
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
+        <v>1056.0059999999994</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2772,16 +2795,16 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2707.2400000000007</v>
-      </c>
-      <c r="E12" s="4">
+        <v>-2721.3800000000006</v>
+      </c>
+      <c r="E12" s="25">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.33834536662913178</v>
+        <v>-0.34011255516215283</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
-        <f>(1 + Tabela22[[#Totals],[MONTANTE]]) ^ (1/12) - 1</f>
-        <v>-3.3832080422891431E-2</v>
+        <f>(1 + Tabela22[[#Totals],[PATRIMÔNIO]]) ^ (1/12) - 1</f>
+        <v>-3.4047385918949846E-2</v>
       </c>
       <c r="H12" s="4"/>
     </row>
@@ -2791,7 +2814,7 @@
     <row r="16" spans="1:11">
       <c r="C16" s="11"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="11"/>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="12"/>
@@ -2799,33 +2822,33 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="2" bestFit="1" customWidth="1"/>
@@ -2848,7 +2871,7 @@
         <v>18</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>24</v>
@@ -2878,11 +2901,11 @@
         <v>293.5</v>
       </c>
       <c r="E2" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
         <v>0</v>
       </c>
       <c r="G2" s="10">
@@ -2910,11 +2933,11 @@
         <v>702.8</v>
       </c>
       <c r="E3" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
         <v>293.49999999999994</v>
       </c>
       <c r="F3" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
         <v>1.3945485519591145</v>
       </c>
       <c r="G3" s="10">
@@ -2941,11 +2964,11 @@
         <v>1740.4199999999998</v>
       </c>
       <c r="E4" s="17">
-        <f>[MONTANTE] - [LUCRO]</f>
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
         <v>702.8</v>
       </c>
       <c r="F4" s="18">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
         <v>1.4764086511098462</v>
       </c>
       <c r="G4" s="17">
@@ -2972,50 +2995,208 @@
         <v>1462.8899999999999</v>
       </c>
       <c r="E5" s="10">
-        <f>[MONTANTE] - [LUCRO]</f>
-        <v>1140.4199999999998</v>
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
+        <v>1740.4199999999998</v>
       </c>
       <c r="F5" s="8">
-        <f>IF([MONTANTE] - [LUCRO] = 0, 0, [LUCRO]/(([MONTANTE] + ABS(SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) )) - [LUCRO]))</f>
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
         <v>0.18528286275726552</v>
       </c>
       <c r="G5" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>34.212599999999995</v>
+        <v>52.212599999999995</v>
       </c>
       <c r="H5" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>228.08399999999997</v>
+        <v>348.084</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
-        <f>SUBTOTAL(103,[DATA])</f>
-        <v>4</v>
-      </c>
-      <c r="B6" s="11">
-        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
-        <v>-600</v>
-      </c>
-      <c r="C6" s="11">
-        <f>SUBTOTAL(109,[LUCRO])</f>
+      <c r="A6" s="15">
+        <v>41122</v>
+      </c>
+      <c r="B6" s="7">
+        <v>-1400</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1519.92</v>
+      </c>
+      <c r="D6" s="20">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>1582.81</v>
+      </c>
+      <c r="E6" s="20">
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
         <v>2062.89</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="21">
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
+        <v>0.73679158849962922</v>
+      </c>
+      <c r="G6" s="20">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>61.88669999999999</v>
+      </c>
+      <c r="H6" s="20">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>412.57799999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="15">
+        <v>41153</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2558.9899999999998</v>
+      </c>
+      <c r="D7" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>4141.7999999999993</v>
+      </c>
+      <c r="E7" s="10">
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
+        <v>3582.8099999999995</v>
+      </c>
+      <c r="F7" s="8">
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
+        <v>0.71424105660082449</v>
+      </c>
+      <c r="G7" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>107.48429999999998</v>
+      </c>
+      <c r="H7" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>716.5619999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="11"/>
+      <c r="A8" s="15">
+        <v>41183</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7">
+        <v>3774</v>
+      </c>
+      <c r="D8" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>7915.7999999999993</v>
+      </c>
+      <c r="E8" s="10">
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
+        <v>6141.7999999999993</v>
+      </c>
+      <c r="F8" s="8">
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
+        <v>0.61447784037252928</v>
+      </c>
+      <c r="G8" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>184.25399999999996</v>
+      </c>
+      <c r="H8" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1228.3599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15">
+        <v>41214</v>
+      </c>
+      <c r="B9" s="7">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5194.74</v>
+      </c>
+      <c r="D9" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>15110.539999999999</v>
+      </c>
+      <c r="E9" s="10">
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
+        <v>9915.7999999999993</v>
+      </c>
+      <c r="F9" s="8">
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
+        <v>0.52388511264850035</v>
+      </c>
+      <c r="G9" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>297.47399999999999</v>
+      </c>
+      <c r="H9" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>1983.1599999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="11"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="15">
+        <v>41244</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7">
+        <v>6442.56</v>
+      </c>
+      <c r="D10" s="10">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
+        <v>21553.1</v>
+      </c>
+      <c r="E10" s="10">
+        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
+        <v>15110.539999999997</v>
+      </c>
+      <c r="F10" s="8">
+        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
+        <v>0.42636199632839072</v>
+      </c>
+      <c r="G10" s="10">
+        <f>[MONTANTE - LUCRO] * 3%</f>
+        <v>453.31619999999992</v>
+      </c>
+      <c r="H10" s="10">
+        <f>[MONTANTE - LUCRO] * 20%</f>
+        <v>3022.1079999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="D11" s="12"/>
+      <c r="A11" s="2">
+        <f>SUBTOTAL(103,[DATA])</f>
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUBTOTAL(109,[LUCRO])</f>
+        <v>21553.1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="7">
+        <f>SUBTOTAL(109,[META MIN])</f>
+        <v>1186.5167999999999</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUBTOTAL(109,[META MAX])</f>
+        <v>7910.1119999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="C13" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="C15" s="11"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/stocks/patrimonio.xlsx
+++ b/stocks/patrimonio.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="12030" windowHeight="5655" tabRatio="211" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -21,31 +21,7 @@
     <author>Engelbert</author>
   </authors>
   <commentList>
-    <comment ref="E12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>RENDIMENTO TOTAL</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Engelbert</author>
-  </authors>
-  <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +145,7 @@
     <numFmt numFmtId="166" formatCode="0.0000%"/>
     <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -211,6 +187,12 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +216,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,9 +250,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -294,6 +280,95 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -312,6 +387,77 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -365,6 +511,147 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -401,6 +688,59 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -419,23 +759,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -471,25 +795,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -507,24 +813,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
@@ -543,309 +831,6 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="[$-416]mmmm\-yy;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -1703,33 +1688,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:I12" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
-  <autoFilter ref="A1:I11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela22" displayName="Tabela22" ref="A1:I13" totalsRowCount="1" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:I12">
     <filterColumn colId="2"/>
     <filterColumn colId="5"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="16"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="RESGATE" dataDxfId="32" totalsRowDxfId="14" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="21" totalsRowDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="PATRIMÔNIO" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="12" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="33" totalsRowDxfId="8"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="5" name="RESGATE" dataDxfId="32" totalsRowDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="PATRIMÔNIO" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="4" dataCellStyle="Moeda">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</calculatedColumnFormula>
       <totalsRowFormula>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="PATRIMONIO - LUCRO" dataDxfId="20" totalsRowDxfId="11" dataCellStyle="Moeda">
+    <tableColumn id="2" name="PATRIMONIO - LUCRO" dataDxfId="29" totalsRowDxfId="3" dataCellStyle="Moeda">
       <calculatedColumnFormula>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="10" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>[LUCRO]/([PATRIMONIO - LUCRO])</calculatedColumnFormula>
       <totalsRowFormula>(1 + Tabela22[[#Totals],[PATRIMÔNIO]]) ^ (1/12) - 1</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" dataDxfId="31" totalsRowDxfId="9" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" dataDxfId="27" totalsRowDxfId="1" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIMONIO - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" dataDxfId="30" totalsRowDxfId="8" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" dataDxfId="26" totalsRowDxfId="0" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIMONIO - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1738,25 +1723,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H11" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela224" displayName="Tabela224" ref="A1:H6" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="27" totalsRowDxfId="7"/>
-    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="6" dataCellStyle="Moeda"/>
-    <tableColumn id="22" name="LUCRO" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="5" dataCellStyle="Moeda"/>
-    <tableColumn id="25" name="PATRIMONIO" dataDxfId="25" totalsRowDxfId="4" dataCellStyle="Moeda">
+    <tableColumn id="1" name="DATA" totalsRowFunction="count" dataDxfId="23" totalsRowDxfId="16"/>
+    <tableColumn id="20" name="APLICAÇÃO" totalsRowFunction="sum" totalsRowDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="22" name="LUCRO" dataDxfId="18" totalsRowDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="25" name="PATRIMONIO" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="13" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</calculatedColumnFormula>
+      <totalsRowFormula>SUBTOTAL(109,[LUCRO])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="18" totalsRowDxfId="3" dataCellStyle="Moeda">
+    <tableColumn id="2" name="MONTANTE - LUCRO" dataDxfId="22" totalsRowDxfId="12" dataCellStyle="Moeda">
       <calculatedColumnFormula>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="RENT. % a.m." dataDxfId="17" totalsRowDxfId="2" dataCellStyle="Porcentagem">
+    <tableColumn id="24" name="RENT. % a.m." dataDxfId="21" totalsRowDxfId="11" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="META MIN" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="1" dataCellStyle="Moeda">
+    <tableColumn id="3" name="META MIN" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="10" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 3%</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="META MAX" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0" dataCellStyle="Moeda">
+    <tableColumn id="4" name="META MAX" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="9" dataCellStyle="Moeda">
       <calculatedColumnFormula>[MONTANTE - LUCRO] * 20%</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2074,7 +2060,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2116,7 +2102,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2388,19 +2374,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -2757,67 +2743,98 @@
         <v>250.45</v>
       </c>
       <c r="C11" s="7">
-        <v>-600</v>
+        <v>-1967.8</v>
       </c>
       <c r="D11" s="7">
-        <v>-940.94</v>
+        <v>-556.79999999999995</v>
       </c>
       <c r="E11" s="23">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
-        <v>4680.029999999997</v>
+        <v>3696.3699999999972</v>
       </c>
       <c r="F11" s="10">
         <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
-        <v>5280.029999999997</v>
+        <v>5664.1699999999973</v>
       </c>
       <c r="G11" s="8">
         <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
-        <v>-0.17820732079173804</v>
+        <v>-9.8302134293285728E-2</v>
       </c>
       <c r="H11" s="10">
         <f>[PATRIMONIO - LUCRO] * 3%</f>
-        <v>158.40089999999989</v>
+        <v>169.9250999999999</v>
       </c>
       <c r="I11" s="10">
         <f>[PATRIMONIO - LUCRO] * 20%</f>
-        <v>1056.0059999999994</v>
+        <v>1132.8339999999996</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
+      <c r="A12" s="15">
+        <v>41122</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
+        <v>-140.97999999999999</v>
+      </c>
+      <c r="E12" s="30">
+        <f>SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[LUCRO]) + SUMPRODUCT(N([DATA]&lt;=Tabela22[[#This Row],[DATA]]),[RESGATE])</f>
+        <v>3555.3899999999967</v>
+      </c>
+      <c r="F12" s="20">
+        <f>IF([LUCRO] &gt; 0, [PATRIMÔNIO] - [LUCRO] - [RESGATE], [PATRIMÔNIO] - [RESGATE])</f>
+        <v>3555.3899999999967</v>
+      </c>
+      <c r="G12" s="21">
+        <f>[LUCRO]/([PATRIMONIO - LUCRO])</f>
+        <v>-3.9652471318195791E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <f>[PATRIMONIO - LUCRO] * 3%</f>
+        <v>106.6616999999999</v>
+      </c>
+      <c r="I12" s="20">
+        <f>[PATRIMONIO - LUCRO] * 20%</f>
+        <v>711.07799999999941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="27">
         <f>SUBTOTAL(103,[DATA])</f>
-        <v>10</v>
-      </c>
-      <c r="B12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="28">
         <f>SUBTOTAL(109,[APLICAÇÃO])</f>
         <v>8001.409999999998</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28">
         <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>-2721.3800000000006</v>
-      </c>
-      <c r="E12" s="25">
+        <v>-2478.2200000000007</v>
+      </c>
+      <c r="E13" s="31">
         <f>Tabela22[[#Totals],[LUCRO]]/Tabela22[[#Totals],[APLICAÇÃO]]</f>
-        <v>-0.34011255516215283</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+        <v>-0.30972291133687702</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29">
         <f>(1 + Tabela22[[#Totals],[PATRIMÔNIO]]) ^ (1/12) - 1</f>
-        <v>-3.4047385918949846E-2</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>-3.0416339256420288E-2</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:11">
-      <c r="C14" s="11"/>
+    <row r="15" spans="1:11">
+      <c r="C15" s="11"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="C16" s="11"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="27"/>
+    <row r="17" spans="3:5">
+      <c r="C17" s="11"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="26"/>
     </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="12"/>
+    <row r="18" spans="3:5">
+      <c r="D18" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2836,10 +2853,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25"/>
@@ -2985,218 +3002,67 @@
         <v>41091</v>
       </c>
       <c r="B5" s="7">
-        <v>-600</v>
+        <v>-1967.8</v>
       </c>
       <c r="C5" s="7">
-        <v>322.47000000000003</v>
+        <v>648.07000000000005</v>
       </c>
       <c r="D5" s="10">
         <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>1462.8899999999999</v>
+        <v>420.68999999999983</v>
       </c>
       <c r="E5" s="10">
         <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>1740.4199999999998</v>
+        <v>1740.4199999999996</v>
       </c>
       <c r="F5" s="8">
         <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.18528286275726552</v>
+        <v>0.37236414198871548</v>
       </c>
       <c r="G5" s="10">
         <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>52.212599999999995</v>
+        <v>52.212599999999988</v>
       </c>
       <c r="H5" s="10">
         <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>348.084</v>
+        <v>348.08399999999995</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15">
-        <v>41122</v>
-      </c>
-      <c r="B6" s="7">
-        <v>-1400</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1519.92</v>
-      </c>
-      <c r="D6" s="20">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>1582.81</v>
-      </c>
-      <c r="E6" s="20">
-        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>2062.89</v>
-      </c>
-      <c r="F6" s="21">
-        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.73679158849962922</v>
-      </c>
-      <c r="G6" s="20">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>61.88669999999999</v>
-      </c>
-      <c r="H6" s="20">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>412.57799999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15">
-        <v>41153</v>
-      </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2558.9899999999998</v>
-      </c>
-      <c r="D7" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>4141.7999999999993</v>
-      </c>
-      <c r="E7" s="10">
-        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>3582.8099999999995</v>
-      </c>
-      <c r="F7" s="8">
-        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.71424105660082449</v>
-      </c>
-      <c r="G7" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>107.48429999999998</v>
-      </c>
-      <c r="H7" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>716.5619999999999</v>
+      <c r="A6" s="27">
+        <f>SUBTOTAL(103,[DATA])</f>
+        <v>4</v>
+      </c>
+      <c r="B6" s="28">
+        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
+        <v>-1967.8</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
+        <f>SUBTOTAL(109,[LUCRO])</f>
+        <v>2388.4899999999998</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28">
+        <f>SUBTOTAL(109,[META MIN])</f>
+        <v>82.101599999999991</v>
+      </c>
+      <c r="H6" s="28">
+        <f>SUBTOTAL(109,[META MAX])</f>
+        <v>547.34399999999994</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="15">
-        <v>41183</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
-        <v>3774</v>
-      </c>
-      <c r="D8" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>7915.7999999999993</v>
-      </c>
-      <c r="E8" s="10">
-        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>6141.7999999999993</v>
-      </c>
-      <c r="F8" s="8">
-        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.61447784037252928</v>
-      </c>
-      <c r="G8" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>184.25399999999996</v>
-      </c>
-      <c r="H8" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1228.3599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="15">
-        <v>41214</v>
-      </c>
-      <c r="B9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5194.74</v>
-      </c>
-      <c r="D9" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>15110.539999999999</v>
-      </c>
-      <c r="E9" s="10">
-        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>9915.7999999999993</v>
-      </c>
-      <c r="F9" s="8">
-        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.52388511264850035</v>
-      </c>
-      <c r="G9" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>297.47399999999999</v>
-      </c>
-      <c r="H9" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>1983.1599999999999</v>
-      </c>
+      <c r="C8" s="11"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="15">
-        <v>41244</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>6442.56</v>
-      </c>
-      <c r="D10" s="10">
-        <f>SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO]) + SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[LUCRO])</f>
-        <v>21553.1</v>
-      </c>
-      <c r="E10" s="10">
-        <f>[PATRIMONIO] - [LUCRO] - SUMPRODUCT(N([DATA]&lt;=Tabela224[[#This Row],[DATA]]),[APLICAÇÃO] )</f>
-        <v>15110.539999999997</v>
-      </c>
-      <c r="F10" s="8">
-        <f>IF([MONTANTE - LUCRO] &lt;= 0, 0, [LUCRO]/([MONTANTE - LUCRO]))</f>
-        <v>0.42636199632839072</v>
-      </c>
-      <c r="G10" s="10">
-        <f>[MONTANTE - LUCRO] * 3%</f>
-        <v>453.31619999999992</v>
-      </c>
-      <c r="H10" s="10">
-        <f>[MONTANTE - LUCRO] * 20%</f>
-        <v>3022.1079999999997</v>
-      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
-        <f>SUBTOTAL(103,[DATA])</f>
-        <v>9</v>
-      </c>
-      <c r="B11" s="11">
-        <f>SUBTOTAL(109,[APLICAÇÃO])</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="11">
-        <f>SUBTOTAL(109,[LUCRO])</f>
-        <v>21553.1</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="7">
-        <f>SUBTOTAL(109,[META MIN])</f>
-        <v>1186.5167999999999</v>
-      </c>
-      <c r="H11" s="11">
-        <f>SUBTOTAL(109,[META MAX])</f>
-        <v>7910.1119999999992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="C13" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="D16" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -3206,9 +3072,8 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>